--- a/data/pca/factorExposure/factorExposure_2018-07-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-07-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.03206401072315916</v>
+        <v>0.02594241949667412</v>
       </c>
       <c r="C2">
-        <v>-0.02995510649298152</v>
+        <v>-0.01740965446313512</v>
       </c>
       <c r="D2">
-        <v>0.01093135296986198</v>
+        <v>-0.02022487564619941</v>
       </c>
       <c r="E2">
-        <v>0.02992082052146447</v>
+        <v>-0.01325331155448211</v>
       </c>
       <c r="F2">
-        <v>-0.1185122490739723</v>
+        <v>-0.002981756323828654</v>
       </c>
       <c r="G2">
-        <v>-0.06400109796734195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.05490209408370019</v>
+      </c>
+      <c r="H2">
+        <v>-0.04471323014027578</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1199636727327962</v>
+        <v>0.07888153800580046</v>
       </c>
       <c r="C3">
-        <v>-0.01613447786114005</v>
+        <v>0.01199574477194046</v>
       </c>
       <c r="D3">
-        <v>-0.05626538350550167</v>
+        <v>-0.01712919771525934</v>
       </c>
       <c r="E3">
-        <v>0.06148956152956696</v>
+        <v>-0.005686683482125823</v>
       </c>
       <c r="F3">
-        <v>-0.4001022525832171</v>
+        <v>0.04891334232187779</v>
       </c>
       <c r="G3">
-        <v>-0.232566070571715</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.1828677003160749</v>
+      </c>
+      <c r="H3">
+        <v>-0.1481597398479586</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05467917379014869</v>
+        <v>0.04901026842244043</v>
       </c>
       <c r="C4">
-        <v>0.002858777922180537</v>
+        <v>-0.00343047472807741</v>
       </c>
       <c r="D4">
-        <v>0.03882720807024748</v>
+        <v>-0.04078810280837827</v>
       </c>
       <c r="E4">
-        <v>0.06206619874676925</v>
+        <v>0.01953139692843945</v>
       </c>
       <c r="F4">
-        <v>-0.07751207798163982</v>
+        <v>-0.04790493702187384</v>
       </c>
       <c r="G4">
-        <v>-0.06366119021118335</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.04279626425155052</v>
+      </c>
+      <c r="H4">
+        <v>-0.05222916753005308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01345364982966043</v>
+        <v>0.02740426012671002</v>
       </c>
       <c r="C6">
-        <v>-0.008649126791855415</v>
+        <v>-0.003672658988572479</v>
       </c>
       <c r="D6">
-        <v>-0.007452361832919278</v>
+        <v>-0.05234237683589243</v>
       </c>
       <c r="E6">
-        <v>0.02316740318186125</v>
+        <v>0.004911404592677302</v>
       </c>
       <c r="F6">
-        <v>-0.01467705896158288</v>
+        <v>-0.03153539589052926</v>
       </c>
       <c r="G6">
-        <v>0.0039119346463523</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01299038763888522</v>
+      </c>
+      <c r="H6">
+        <v>-0.06117288355659412</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02466876629056184</v>
+        <v>0.0207715968505849</v>
       </c>
       <c r="C7">
-        <v>-0.003760698342320088</v>
+        <v>-0.003189081446691279</v>
       </c>
       <c r="D7">
-        <v>-0.005686453819768225</v>
+        <v>-0.02341429223367353</v>
       </c>
       <c r="E7">
-        <v>0.03576861893396246</v>
+        <v>0.03639079422501663</v>
       </c>
       <c r="F7">
-        <v>-0.05104867078090098</v>
+        <v>-0.008302760415614329</v>
       </c>
       <c r="G7">
-        <v>-0.06340584277486902</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.02343917079865974</v>
+      </c>
+      <c r="H7">
+        <v>-0.03734872361226656</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.0202900226715448</v>
+        <v>0.007246273673477305</v>
       </c>
       <c r="C8">
-        <v>0.003877709485911663</v>
+        <v>0.002117856274306106</v>
       </c>
       <c r="D8">
-        <v>0.01047141176248771</v>
+        <v>-0.01289255323985392</v>
       </c>
       <c r="E8">
-        <v>0.06866305598134455</v>
+        <v>0.009851844708425464</v>
       </c>
       <c r="F8">
-        <v>-0.0947129121416984</v>
+        <v>-0.01621174436046792</v>
       </c>
       <c r="G8">
-        <v>-0.08160074823028052</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.05020923788879409</v>
+      </c>
+      <c r="H8">
+        <v>-0.03419207521432907</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04584808104250956</v>
+        <v>0.04056286137567116</v>
       </c>
       <c r="C9">
-        <v>0.01111091408946988</v>
+        <v>0.0007693130223480361</v>
       </c>
       <c r="D9">
-        <v>0.03070957786425561</v>
+        <v>-0.03290315707315501</v>
       </c>
       <c r="E9">
-        <v>0.06309416934652035</v>
+        <v>0.01767514418403721</v>
       </c>
       <c r="F9">
-        <v>-0.07612001044866173</v>
+        <v>-0.0229594268051227</v>
       </c>
       <c r="G9">
-        <v>-0.05789199177085749</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04942561279604995</v>
+      </c>
+      <c r="H9">
+        <v>-0.04951872192578304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03053996932872544</v>
+        <v>0.09893516801372135</v>
       </c>
       <c r="C10">
-        <v>0.03200121245312235</v>
+        <v>0.03033346796592707</v>
       </c>
       <c r="D10">
-        <v>0.02497312303001369</v>
+        <v>0.1525943280550475</v>
       </c>
       <c r="E10">
-        <v>-0.1203055375973309</v>
+        <v>-0.01224506109625066</v>
       </c>
       <c r="F10">
-        <v>-0.06227182419540109</v>
+        <v>0.05215493940113978</v>
       </c>
       <c r="G10">
-        <v>-0.001715349609858947</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02388647662710382</v>
+      </c>
+      <c r="H10">
+        <v>-0.002415520830237907</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03679086537787703</v>
+        <v>0.02191197951638989</v>
       </c>
       <c r="C11">
-        <v>-0.01865739250716963</v>
+        <v>0.008281882212739438</v>
       </c>
       <c r="D11">
-        <v>0.0008890885500370515</v>
+        <v>-0.03708586299962868</v>
       </c>
       <c r="E11">
-        <v>0.03831162018628823</v>
+        <v>-0.004657593696616367</v>
       </c>
       <c r="F11">
-        <v>-0.04000754225801466</v>
+        <v>-0.01029336394105697</v>
       </c>
       <c r="G11">
-        <v>-0.02333198137432127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.02623206275940584</v>
+      </c>
+      <c r="H11">
+        <v>-0.04242706935292179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04450386964208748</v>
+        <v>0.03070841370421373</v>
       </c>
       <c r="C12">
-        <v>-0.007140500926494333</v>
+        <v>0.006768228830870734</v>
       </c>
       <c r="D12">
-        <v>0.008781545636427617</v>
+        <v>-0.03815399583291145</v>
       </c>
       <c r="E12">
-        <v>0.0443347545396143</v>
+        <v>0.006826825289660917</v>
       </c>
       <c r="F12">
-        <v>-0.02569163009150066</v>
+        <v>-0.01702268314878396</v>
       </c>
       <c r="G12">
-        <v>-0.01505350049954205</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.01161821073372847</v>
+      </c>
+      <c r="H12">
+        <v>-0.02230611924674895</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01891771043742322</v>
+        <v>0.02603427537093347</v>
       </c>
       <c r="C13">
-        <v>-0.03099647866505932</v>
+        <v>-0.01379476942010127</v>
       </c>
       <c r="D13">
-        <v>0.006009989116301253</v>
+        <v>-0.003637781649689562</v>
       </c>
       <c r="E13">
-        <v>0.01287548176309915</v>
+        <v>-0.01750029486860312</v>
       </c>
       <c r="F13">
-        <v>-0.08017843130081609</v>
+        <v>-0.008422050386065479</v>
       </c>
       <c r="G13">
-        <v>-0.0457495937778909</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.05071920509990528</v>
+      </c>
+      <c r="H13">
+        <v>-0.05035916407803931</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01157216945665536</v>
+        <v>0.01631125987865774</v>
       </c>
       <c r="C14">
-        <v>-0.004561552552199743</v>
+        <v>-0.0007860384825651566</v>
       </c>
       <c r="D14">
-        <v>0.006958278649787519</v>
+        <v>-0.005303980340178797</v>
       </c>
       <c r="E14">
-        <v>0.03619436150778276</v>
+        <v>0.007502290072174863</v>
       </c>
       <c r="F14">
-        <v>-0.05283452631023782</v>
+        <v>-0.01380482375332052</v>
       </c>
       <c r="G14">
-        <v>-0.07414403941730124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.04330142881880306</v>
+      </c>
+      <c r="H14">
+        <v>0.0006035824050821338</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02781214363014861</v>
+        <v>0.02343454761590468</v>
       </c>
       <c r="C16">
-        <v>-0.01750869296301745</v>
+        <v>0.008897998051700563</v>
       </c>
       <c r="D16">
-        <v>0.003008748387498246</v>
+        <v>-0.03361716446542082</v>
       </c>
       <c r="E16">
-        <v>0.03472364624362746</v>
+        <v>0.0002901301778271922</v>
       </c>
       <c r="F16">
-        <v>-0.04670992548689226</v>
+        <v>-0.01564665138027605</v>
       </c>
       <c r="G16">
-        <v>-0.02551736158759848</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.02462233645030553</v>
+      </c>
+      <c r="H16">
+        <v>-0.0358523003186885</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.04266988577356352</v>
+        <v>0.03424257825071318</v>
       </c>
       <c r="C19">
-        <v>-0.0176887671103307</v>
+        <v>1.78747400068228e-05</v>
       </c>
       <c r="D19">
-        <v>0.0004447142112539018</v>
+        <v>-0.01750674993443297</v>
       </c>
       <c r="E19">
-        <v>0.05249677531324897</v>
+        <v>-0.00104141726291706</v>
       </c>
       <c r="F19">
-        <v>-0.09857782856959262</v>
+        <v>-0.01932688983905776</v>
       </c>
       <c r="G19">
-        <v>-0.05144362356560328</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.06132621337783841</v>
+      </c>
+      <c r="H19">
+        <v>-0.06458858255711913</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.001339786109106949</v>
+        <v>0.01034005296897439</v>
       </c>
       <c r="C20">
-        <v>-0.008151448869197515</v>
+        <v>-0.006556086991618116</v>
       </c>
       <c r="D20">
-        <v>0.01296492756284093</v>
+        <v>-0.006052753058387759</v>
       </c>
       <c r="E20">
-        <v>0.04108351280948588</v>
+        <v>-0.0001282021692133997</v>
       </c>
       <c r="F20">
-        <v>-0.07020207610911269</v>
+        <v>-0.009107977313376413</v>
       </c>
       <c r="G20">
-        <v>-0.08850831495489209</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.04847632570204562</v>
+      </c>
+      <c r="H20">
+        <v>-0.01104913676765477</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.0003566769622969784</v>
+        <v>0.01909056227617319</v>
       </c>
       <c r="C21">
-        <v>-0.0003799945838649355</v>
+        <v>-0.006897176036860917</v>
       </c>
       <c r="D21">
-        <v>-0.01143932592615321</v>
+        <v>-0.009620838627035277</v>
       </c>
       <c r="E21">
-        <v>0.03767558522736163</v>
+        <v>0.01061398351443834</v>
       </c>
       <c r="F21">
-        <v>-0.05681958154483759</v>
+        <v>-0.004206147647318128</v>
       </c>
       <c r="G21">
-        <v>-0.03150534743341291</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.05016863835161516</v>
+      </c>
+      <c r="H21">
+        <v>-0.02855907466451102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03398082176330597</v>
+        <v>0.0211267264780541</v>
       </c>
       <c r="C24">
-        <v>-0.01503403589646301</v>
+        <v>0.003241934956640728</v>
       </c>
       <c r="D24">
-        <v>0.01010042457531081</v>
+        <v>-0.03422134031997004</v>
       </c>
       <c r="E24">
-        <v>0.02082503736706559</v>
+        <v>0.0004715503212387429</v>
       </c>
       <c r="F24">
-        <v>-0.03916018516423466</v>
+        <v>-0.009468142347723111</v>
       </c>
       <c r="G24">
-        <v>-0.02161555002279752</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.02080145017802535</v>
+      </c>
+      <c r="H24">
+        <v>-0.03848065882164609</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03211175833204357</v>
+        <v>0.03021243489156963</v>
       </c>
       <c r="C25">
-        <v>-0.008447725931893161</v>
+        <v>0.001096151354770239</v>
       </c>
       <c r="D25">
-        <v>0.001736253084557524</v>
+        <v>-0.03369370281913738</v>
       </c>
       <c r="E25">
-        <v>0.04264041535286849</v>
+        <v>0.001970207322897825</v>
       </c>
       <c r="F25">
-        <v>-0.03993012780418685</v>
+        <v>-0.01606439799629355</v>
       </c>
       <c r="G25">
-        <v>-0.006348253820468995</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.02478410139168974</v>
+      </c>
+      <c r="H25">
+        <v>-0.04188416268095234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02327224157644102</v>
+        <v>0.02121752234361455</v>
       </c>
       <c r="C26">
-        <v>-0.02491252195526612</v>
+        <v>-0.01675324453612301</v>
       </c>
       <c r="D26">
-        <v>-0.01832283357371441</v>
+        <v>-0.003859695483560571</v>
       </c>
       <c r="E26">
-        <v>0.03335754967864286</v>
+        <v>-0.007642790170583984</v>
       </c>
       <c r="F26">
-        <v>-0.06679613061954</v>
+        <v>0.0006636327070932915</v>
       </c>
       <c r="G26">
-        <v>-0.04031528006499972</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.03239395138473959</v>
+      </c>
+      <c r="H26">
+        <v>-0.01579126567514421</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.06889074040875436</v>
+        <v>0.02728729228849236</v>
       </c>
       <c r="C27">
-        <v>-0.005370824051068777</v>
+        <v>0.01072321663037145</v>
       </c>
       <c r="D27">
-        <v>0.0516205317495893</v>
+        <v>-0.01509284195743233</v>
       </c>
       <c r="E27">
-        <v>0.03597327451644074</v>
+        <v>0.004948425519910967</v>
       </c>
       <c r="F27">
-        <v>-0.04444467638418861</v>
+        <v>-0.01978194308030451</v>
       </c>
       <c r="G27">
-        <v>-0.04119666758330231</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.01921197260630029</v>
+      </c>
+      <c r="H27">
+        <v>-0.004182396018210993</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.04522602396121874</v>
+        <v>0.1460197657780465</v>
       </c>
       <c r="C28">
-        <v>0.04709101517733377</v>
+        <v>0.031321428422099</v>
       </c>
       <c r="D28">
-        <v>0.04603091343690462</v>
+        <v>0.2249299210030916</v>
       </c>
       <c r="E28">
-        <v>-0.1717657356927949</v>
+        <v>-0.009867743616316283</v>
       </c>
       <c r="F28">
-        <v>-0.06970055011933085</v>
+        <v>0.06037947271661048</v>
       </c>
       <c r="G28">
-        <v>-0.01606839276361846</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.01291428860805652</v>
+      </c>
+      <c r="H28">
+        <v>0.01811483292371456</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02122052452215884</v>
+        <v>0.02137446674745462</v>
       </c>
       <c r="C29">
-        <v>0.002279714436093399</v>
+        <v>0.001449491328752621</v>
       </c>
       <c r="D29">
-        <v>0.01290072288296966</v>
+        <v>-0.008013461212572558</v>
       </c>
       <c r="E29">
-        <v>0.04744488809513665</v>
+        <v>0.009049525004142881</v>
       </c>
       <c r="F29">
-        <v>-0.04079030220505685</v>
+        <v>-0.01597081046053249</v>
       </c>
       <c r="G29">
-        <v>-0.06602695364223878</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.03887130364429098</v>
+      </c>
+      <c r="H29">
+        <v>0.004314909634856812</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.09354654348462696</v>
+        <v>0.05355046524598735</v>
       </c>
       <c r="C30">
-        <v>-0.04979976869931271</v>
+        <v>-0.004415468649831045</v>
       </c>
       <c r="D30">
-        <v>0.0335983724171284</v>
+        <v>-0.07048857992454712</v>
       </c>
       <c r="E30">
-        <v>0.08191127246179171</v>
+        <v>-0.03604537688670392</v>
       </c>
       <c r="F30">
-        <v>-0.07936734351584487</v>
+        <v>-0.04780873932859769</v>
       </c>
       <c r="G30">
-        <v>-0.03805596352228258</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.05694930082772532</v>
+      </c>
+      <c r="H30">
+        <v>-0.06733820946621163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06401775319473721</v>
+        <v>0.05546032671384297</v>
       </c>
       <c r="C31">
-        <v>-0.0378041563800707</v>
+        <v>0.01527397237566253</v>
       </c>
       <c r="D31">
-        <v>-0.0008422250586995049</v>
+        <v>-0.02735462978614114</v>
       </c>
       <c r="E31">
-        <v>0.03064040345557834</v>
+        <v>-0.00874722672151511</v>
       </c>
       <c r="F31">
-        <v>-0.03578490334161032</v>
+        <v>-0.01440815482773494</v>
       </c>
       <c r="G31">
-        <v>-0.08923959696611891</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.02098765840215909</v>
+      </c>
+      <c r="H31">
+        <v>0.000863653829659872</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02179598021430029</v>
+        <v>0.009981884951229977</v>
       </c>
       <c r="C32">
-        <v>-0.01095794333195553</v>
+        <v>0.01348252056069239</v>
       </c>
       <c r="D32">
-        <v>0.01397937287909301</v>
+        <v>-0.002265188554048404</v>
       </c>
       <c r="E32">
-        <v>0.08383169236726011</v>
+        <v>0.01931734098984654</v>
       </c>
       <c r="F32">
-        <v>-0.05519093647090075</v>
+        <v>-0.03987387519188039</v>
       </c>
       <c r="G32">
-        <v>-0.04380561728837681</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.03688495562449259</v>
+      </c>
+      <c r="H32">
+        <v>-0.05970867064444765</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.05410390948804094</v>
+        <v>0.03919822721495295</v>
       </c>
       <c r="C33">
-        <v>-0.03179322963358202</v>
+        <v>0.0009985082736865142</v>
       </c>
       <c r="D33">
-        <v>-0.02057318711622691</v>
+        <v>-0.03071371245085273</v>
       </c>
       <c r="E33">
-        <v>0.06350144878716475</v>
+        <v>-0.02519476045902189</v>
       </c>
       <c r="F33">
-        <v>-0.08423293421414448</v>
+        <v>0.001666555687685656</v>
       </c>
       <c r="G33">
-        <v>-0.05369748760391319</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.05080667914324613</v>
+      </c>
+      <c r="H33">
+        <v>-0.03896577889038362</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03567382332242589</v>
+        <v>0.0278892479982584</v>
       </c>
       <c r="C34">
-        <v>-0.01508656650148072</v>
+        <v>0.01747787213893363</v>
       </c>
       <c r="D34">
-        <v>0.01141300326809687</v>
+        <v>-0.03500399362695869</v>
       </c>
       <c r="E34">
-        <v>0.04367241229132644</v>
+        <v>0.005778456017842878</v>
       </c>
       <c r="F34">
-        <v>-0.05179041546708536</v>
+        <v>-0.01769326990583019</v>
       </c>
       <c r="G34">
-        <v>-0.01400064362104249</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.02221157915169966</v>
+      </c>
+      <c r="H34">
+        <v>-0.03605617853052741</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01592559779640705</v>
+        <v>0.02175848930086783</v>
       </c>
       <c r="C36">
-        <v>-0.002581386378607893</v>
+        <v>-0.003501510866734264</v>
       </c>
       <c r="D36">
-        <v>0.004635351117037968</v>
+        <v>0.0004074518512654382</v>
       </c>
       <c r="E36">
-        <v>0.03063695222724559</v>
+        <v>0.001992781237767699</v>
       </c>
       <c r="F36">
-        <v>-0.03369716539871458</v>
+        <v>-0.00449367090576182</v>
       </c>
       <c r="G36">
-        <v>-0.04177622775407722</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.02100016310749131</v>
+      </c>
+      <c r="H36">
+        <v>-0.005357067339952341</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.003871734917139229</v>
+        <v>0.02379712938948832</v>
       </c>
       <c r="C38">
-        <v>0.0112263652481133</v>
+        <v>0.01670108339867328</v>
       </c>
       <c r="D38">
-        <v>-0.01579025979286834</v>
+        <v>-0.002776056014262856</v>
       </c>
       <c r="E38">
-        <v>-0.006021434851352133</v>
+        <v>0.003119321482307863</v>
       </c>
       <c r="F38">
-        <v>-0.04884267605254239</v>
+        <v>-0.005161146552508687</v>
       </c>
       <c r="G38">
-        <v>-3.590795547730796e-05</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02417286511825415</v>
+      </c>
+      <c r="H38">
+        <v>-0.03838836462024005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.04217924912278526</v>
+        <v>0.02024192681701963</v>
       </c>
       <c r="C39">
-        <v>-0.03128167891157054</v>
+        <v>0.0008829293178310921</v>
       </c>
       <c r="D39">
-        <v>0.01049225022218435</v>
+        <v>-0.07564332904858516</v>
       </c>
       <c r="E39">
-        <v>0.05053002179617029</v>
+        <v>-0.004069292814967494</v>
       </c>
       <c r="F39">
-        <v>-0.06327764595291095</v>
+        <v>-0.02095747717872526</v>
       </c>
       <c r="G39">
-        <v>-0.02135889284715718</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.04350901963496483</v>
+      </c>
+      <c r="H39">
+        <v>-0.07038945384479268</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.03661018325526923</v>
+        <v>0.03420306229355844</v>
       </c>
       <c r="C40">
-        <v>-0.06240025600981281</v>
+        <v>0.001786470739890866</v>
       </c>
       <c r="D40">
-        <v>0.01889142280965607</v>
+        <v>-0.01842698030817363</v>
       </c>
       <c r="E40">
-        <v>0.03111057466654748</v>
+        <v>-0.02419315758790783</v>
       </c>
       <c r="F40">
-        <v>-0.0746028560031658</v>
+        <v>-0.02392233442099875</v>
       </c>
       <c r="G40">
-        <v>-0.0548709336277091</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.02680029278493185</v>
+      </c>
+      <c r="H40">
+        <v>-0.06611846647834681</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.0009336178934753149</v>
+        <v>0.01225051609620981</v>
       </c>
       <c r="C41">
-        <v>-0.0002920462482524464</v>
+        <v>0.0001922719824210386</v>
       </c>
       <c r="D41">
-        <v>-0.00305468088428448</v>
+        <v>0.01210138880528736</v>
       </c>
       <c r="E41">
-        <v>0.01339388979306613</v>
+        <v>-0.001548502777704224</v>
       </c>
       <c r="F41">
-        <v>-0.001996128687047369</v>
+        <v>0.0007695753982797874</v>
       </c>
       <c r="G41">
-        <v>-0.05752228076444729</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.005996653167869924</v>
+      </c>
+      <c r="H41">
+        <v>0.00959587724396044</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3794107337624821</v>
+        <v>0.1932221678626257</v>
       </c>
       <c r="C42">
-        <v>0.1212996029524005</v>
+        <v>-0.07797640509926548</v>
       </c>
       <c r="D42">
-        <v>-0.8637530096510052</v>
+        <v>-0.3873998860953187</v>
       </c>
       <c r="E42">
-        <v>-0.1412264187163284</v>
+        <v>-0.1493215157991305</v>
       </c>
       <c r="F42">
-        <v>0.1952735116104143</v>
+        <v>0.846812302404259</v>
       </c>
       <c r="G42">
-        <v>-0.04689857527270218</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.2162068143360761</v>
+      </c>
+      <c r="H42">
+        <v>0.04770738498055681</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.005565582747499627</v>
+        <v>0.01085832206457927</v>
       </c>
       <c r="C43">
-        <v>-0.004180241154074901</v>
+        <v>-0.001856151271592946</v>
       </c>
       <c r="D43">
-        <v>-0.01486567313741765</v>
+        <v>0.01619778675486036</v>
       </c>
       <c r="E43">
-        <v>0.0189764057005187</v>
+        <v>-0.007611235897316659</v>
       </c>
       <c r="F43">
-        <v>-0.02000783757017928</v>
+        <v>0.0102955138811295</v>
       </c>
       <c r="G43">
-        <v>-0.05716506293732861</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.008577524219930783</v>
+      </c>
+      <c r="H43">
+        <v>0.001720307756922479</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01543638320027864</v>
+        <v>0.01405672619068397</v>
       </c>
       <c r="C44">
-        <v>-0.007869295119263786</v>
+        <v>0.0009838650199547572</v>
       </c>
       <c r="D44">
-        <v>-0.01421730828736321</v>
+        <v>-0.01784790514457879</v>
       </c>
       <c r="E44">
-        <v>0.04263658242976421</v>
+        <v>0.00220835890205957</v>
       </c>
       <c r="F44">
-        <v>-0.1144804177985108</v>
+        <v>0.00561444141869483</v>
       </c>
       <c r="G44">
-        <v>-0.1115903731725149</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.04608156721352769</v>
+      </c>
+      <c r="H44">
+        <v>-0.05024851455943007</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01981180533138126</v>
+        <v>0.01947611682656667</v>
       </c>
       <c r="C46">
-        <v>-0.01172450017247923</v>
+        <v>-0.003473824499704587</v>
       </c>
       <c r="D46">
-        <v>-0.008205320570765421</v>
+        <v>-0.01519691179678588</v>
       </c>
       <c r="E46">
-        <v>0.05905213355298708</v>
+        <v>-0.001950250404098022</v>
       </c>
       <c r="F46">
-        <v>-0.05750323217283539</v>
+        <v>-0.01335738574933831</v>
       </c>
       <c r="G46">
-        <v>-0.07314048484701184</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.05138568188253026</v>
+      </c>
+      <c r="H46">
+        <v>-0.0078463072203799</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.0996743417743992</v>
+        <v>0.07587705211586071</v>
       </c>
       <c r="C47">
-        <v>-0.03016562647092047</v>
+        <v>0.03043648155572667</v>
       </c>
       <c r="D47">
-        <v>0.01798423383692458</v>
+        <v>-0.04178119910163698</v>
       </c>
       <c r="E47">
-        <v>0.03523106732884994</v>
+        <v>-0.004882131232187754</v>
       </c>
       <c r="F47">
-        <v>-0.007512806139699345</v>
+        <v>-0.02376421075234769</v>
       </c>
       <c r="G47">
-        <v>-0.09348528088990619</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.005319636118145272</v>
+      </c>
+      <c r="H47">
+        <v>0.02512068084947681</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01828453380720028</v>
+        <v>0.02331296127935715</v>
       </c>
       <c r="C48">
-        <v>-0.01091060207999598</v>
+        <v>0.006989604918993511</v>
       </c>
       <c r="D48">
-        <v>-0.003884117893209884</v>
+        <v>-0.005572322355067809</v>
       </c>
       <c r="E48">
-        <v>0.03533536350315872</v>
+        <v>-0.002877490882157504</v>
       </c>
       <c r="F48">
-        <v>-0.05245347903546015</v>
+        <v>-0.006913775390235772</v>
       </c>
       <c r="G48">
-        <v>-0.02686881385257676</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.02664580787667273</v>
+      </c>
+      <c r="H48">
+        <v>-0.0146167880759737</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.0937678358824435</v>
+        <v>0.07375308274970759</v>
       </c>
       <c r="C50">
-        <v>-0.03422980771883558</v>
+        <v>0.02761831642449177</v>
       </c>
       <c r="D50">
-        <v>0.007383003617371494</v>
+        <v>-0.04415294788498029</v>
       </c>
       <c r="E50">
-        <v>0.05226356002187215</v>
+        <v>0.009294803925250818</v>
       </c>
       <c r="F50">
-        <v>-0.03918873617387751</v>
+        <v>-0.02074781195151535</v>
       </c>
       <c r="G50">
-        <v>-0.04922804514385149</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.02010967066047515</v>
+      </c>
+      <c r="H50">
+        <v>0.008837912895949023</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01635978476989103</v>
+        <v>0.01830131224772094</v>
       </c>
       <c r="C51">
-        <v>-0.01295275659010149</v>
+        <v>-0.001526599087649563</v>
       </c>
       <c r="D51">
-        <v>-0.01539051273955482</v>
+        <v>0.009026600851305971</v>
       </c>
       <c r="E51">
-        <v>0.00620202478270647</v>
+        <v>-0.005938916852876053</v>
       </c>
       <c r="F51">
-        <v>-0.1236862195861599</v>
+        <v>0.01465501400890692</v>
       </c>
       <c r="G51">
-        <v>-0.06747082803952771</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.05025240334347216</v>
+      </c>
+      <c r="H51">
+        <v>-0.04691476110953229</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1061118214115395</v>
+        <v>0.09264478762327742</v>
       </c>
       <c r="C53">
-        <v>-0.03895957244887052</v>
+        <v>0.03703496423686255</v>
       </c>
       <c r="D53">
-        <v>0.0260851671681733</v>
+        <v>-0.07670751705188075</v>
       </c>
       <c r="E53">
-        <v>0.04926126788374133</v>
+        <v>-0.00230070680762938</v>
       </c>
       <c r="F53">
-        <v>0.05529882210352025</v>
+        <v>-0.05339559728706499</v>
       </c>
       <c r="G53">
-        <v>-0.03453283302916558</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.04076112488934924</v>
+      </c>
+      <c r="H53">
+        <v>0.04749806555456957</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.01382423568277911</v>
+        <v>0.02335890301064144</v>
       </c>
       <c r="C54">
-        <v>-0.001467402671052999</v>
+        <v>0.01097910253762391</v>
       </c>
       <c r="D54">
-        <v>0.01243614314885309</v>
+        <v>0.01463267480544479</v>
       </c>
       <c r="E54">
-        <v>0.03854304234100846</v>
+        <v>0.004825849621579778</v>
       </c>
       <c r="F54">
-        <v>-0.05768617144976025</v>
+        <v>-0.005831347220929034</v>
       </c>
       <c r="G54">
-        <v>-0.1032248049453453</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.04012834705687374</v>
+      </c>
+      <c r="H54">
+        <v>0.006385611355055209</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1017774298460738</v>
+        <v>0.07699397837960952</v>
       </c>
       <c r="C55">
-        <v>-0.006905129169148107</v>
+        <v>0.0318893314562853</v>
       </c>
       <c r="D55">
-        <v>0.02593082182563936</v>
+        <v>-0.07377079481778119</v>
       </c>
       <c r="E55">
-        <v>0.05557778255122341</v>
+        <v>0.009457254340139051</v>
       </c>
       <c r="F55">
-        <v>0.04623716926210015</v>
+        <v>-0.04173115616394046</v>
       </c>
       <c r="G55">
-        <v>-0.06385470722736293</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.01888148501134025</v>
+      </c>
+      <c r="H55">
+        <v>0.05194171943047823</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.145287563767741</v>
+        <v>0.1280651554423829</v>
       </c>
       <c r="C56">
-        <v>-0.04173322488641831</v>
+        <v>0.05729772181894106</v>
       </c>
       <c r="D56">
-        <v>0.08385497955938782</v>
+        <v>-0.09867540955957803</v>
       </c>
       <c r="E56">
-        <v>0.05880253091650084</v>
+        <v>0.001785966446378634</v>
       </c>
       <c r="F56">
-        <v>0.1213809849781637</v>
+        <v>-0.08592445568043867</v>
       </c>
       <c r="G56">
-        <v>0.03099916094023804</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.07275110284530867</v>
+      </c>
+      <c r="H56">
+        <v>0.05035596345631761</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04567987075804716</v>
+        <v>0.04211687689863478</v>
       </c>
       <c r="C57">
-        <v>-0.02720634300914087</v>
+        <v>-0.009349247323562165</v>
       </c>
       <c r="D57">
-        <v>-0.01305427970753605</v>
+        <v>-0.02672572159827775</v>
       </c>
       <c r="E57">
-        <v>-0.004609270949165258</v>
+        <v>-0.01231379291155399</v>
       </c>
       <c r="F57">
-        <v>-0.08991939796228769</v>
+        <v>-0.01132509787775839</v>
       </c>
       <c r="G57">
-        <v>-0.04712984779486851</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.05682174046841935</v>
+      </c>
+      <c r="H57">
+        <v>-0.03958895397160945</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2134725139588843</v>
+        <v>0.1488517603211607</v>
       </c>
       <c r="C58">
-        <v>-0.09662720877566054</v>
+        <v>0.042838931865265</v>
       </c>
       <c r="D58">
-        <v>-0.03285159869845231</v>
+        <v>-0.1534094913411383</v>
       </c>
       <c r="E58">
-        <v>0.2066671325001671</v>
+        <v>-0.1334237964723812</v>
       </c>
       <c r="F58">
-        <v>-0.2933406077289916</v>
+        <v>0.07119865802900212</v>
       </c>
       <c r="G58">
-        <v>-0.03067385596907373</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.8309424301837428</v>
+      </c>
+      <c r="H58">
+        <v>0.3621400364325645</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.04798305346702907</v>
+        <v>0.1541892197849356</v>
       </c>
       <c r="C59">
-        <v>0.01149415713829344</v>
+        <v>0.04006321437063603</v>
       </c>
       <c r="D59">
-        <v>0.05976335077289142</v>
+        <v>0.2212770382000763</v>
       </c>
       <c r="E59">
-        <v>-0.1496652616367768</v>
+        <v>-0.02974024445157007</v>
       </c>
       <c r="F59">
-        <v>-0.07983341258451286</v>
+        <v>0.04034780147030052</v>
       </c>
       <c r="G59">
-        <v>0.02380969448772064</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.008949739233333129</v>
+      </c>
+      <c r="H59">
+        <v>-0.01547676189066206</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1664694378120856</v>
+        <v>0.1740833072410891</v>
       </c>
       <c r="C60">
-        <v>-0.06224193601387367</v>
+        <v>0.03806435499446871</v>
       </c>
       <c r="D60">
-        <v>-0.009108864090849053</v>
+        <v>-0.01781235988085525</v>
       </c>
       <c r="E60">
-        <v>-0.00529454948092994</v>
+        <v>-0.05338578430466351</v>
       </c>
       <c r="F60">
-        <v>-0.1774217081432668</v>
+        <v>-0.0286367485950463</v>
       </c>
       <c r="G60">
-        <v>0.3194199879892999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.0419252161632262</v>
+      </c>
+      <c r="H60">
+        <v>-0.3924987281036457</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02254048483623876</v>
+        <v>0.02208468017065344</v>
       </c>
       <c r="C61">
-        <v>-0.00737429023036762</v>
+        <v>0.006328307713397432</v>
       </c>
       <c r="D61">
-        <v>-0.002710136171175059</v>
+        <v>-0.04199636813365066</v>
       </c>
       <c r="E61">
-        <v>0.02350423489577273</v>
+        <v>0.001996044948489988</v>
       </c>
       <c r="F61">
-        <v>-0.03276050474733842</v>
+        <v>-0.0167491467390531</v>
       </c>
       <c r="G61">
-        <v>-0.007817817148209777</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.02420502635045393</v>
+      </c>
+      <c r="H61">
+        <v>-0.04899860818784493</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01746743932619898</v>
+        <v>0.01296288566879531</v>
       </c>
       <c r="C63">
-        <v>-0.009720062072715899</v>
+        <v>-0.002148782181093589</v>
       </c>
       <c r="D63">
-        <v>0.001120008830865937</v>
+        <v>-0.01405554936495131</v>
       </c>
       <c r="E63">
-        <v>0.04957094225478115</v>
+        <v>0.001642740465308223</v>
       </c>
       <c r="F63">
-        <v>-0.01250696031829317</v>
+        <v>-0.01494331826047152</v>
       </c>
       <c r="G63">
-        <v>-0.0540942751266756</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01658226426279561</v>
+      </c>
+      <c r="H63">
+        <v>0.002311213833533358</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03697818268746411</v>
+        <v>0.03987394713730456</v>
       </c>
       <c r="C64">
-        <v>0.01534222921442502</v>
+        <v>0.009880698497875502</v>
       </c>
       <c r="D64">
-        <v>0.01679267818900226</v>
+        <v>-0.03853098703961159</v>
       </c>
       <c r="E64">
-        <v>0.04968208135063541</v>
+        <v>0.01007085514067538</v>
       </c>
       <c r="F64">
-        <v>-0.01334480159240743</v>
+        <v>-0.008430570038542015</v>
       </c>
       <c r="G64">
-        <v>-0.06325316075282729</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.009522943323711988</v>
+      </c>
+      <c r="H64">
+        <v>-0.03314328028495971</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.01469586820418626</v>
+        <v>0.03113325324488317</v>
       </c>
       <c r="C65">
-        <v>-0.009779957326126831</v>
+        <v>-0.004132293976818209</v>
       </c>
       <c r="D65">
-        <v>-0.008127314715381804</v>
+        <v>-0.06273690096840101</v>
       </c>
       <c r="E65">
-        <v>0.02231410662292617</v>
+        <v>0.007223065495585836</v>
       </c>
       <c r="F65">
-        <v>-0.009693945525979786</v>
+        <v>-0.03598861257121175</v>
       </c>
       <c r="G65">
-        <v>0.008853523055612638</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.0003529147660338216</v>
+      </c>
+      <c r="H65">
+        <v>-0.06643036811684945</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04569531304123384</v>
+        <v>0.02736026380075052</v>
       </c>
       <c r="C66">
-        <v>-0.03689891202738526</v>
+        <v>0.005673326048675614</v>
       </c>
       <c r="D66">
-        <v>0.008722984318150016</v>
+        <v>-0.08727527501102778</v>
       </c>
       <c r="E66">
-        <v>0.04405191397234414</v>
+        <v>-0.009530403824257808</v>
       </c>
       <c r="F66">
-        <v>-0.05829451638379433</v>
+        <v>-0.03700954705021577</v>
       </c>
       <c r="G66">
-        <v>-0.01172170556189516</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.03412347943675882</v>
+      </c>
+      <c r="H66">
+        <v>-0.07480764825118201</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01810319231556535</v>
+        <v>0.04407005155386172</v>
       </c>
       <c r="C67">
-        <v>0.01016758557684412</v>
+        <v>0.02028578291184748</v>
       </c>
       <c r="D67">
-        <v>-0.007597407936862995</v>
+        <v>0.003284792801991716</v>
       </c>
       <c r="E67">
-        <v>-0.02694654513396397</v>
+        <v>0.001620956419301808</v>
       </c>
       <c r="F67">
-        <v>-0.03483720918212419</v>
+        <v>-0.01091653159123863</v>
       </c>
       <c r="G67">
-        <v>0.017692952660853</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.008456910412691528</v>
+      </c>
+      <c r="H67">
+        <v>-0.04019992713654256</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05904369763875088</v>
+        <v>0.155920343733543</v>
       </c>
       <c r="C68">
-        <v>0.03771770200236427</v>
+        <v>0.02034350077011034</v>
       </c>
       <c r="D68">
-        <v>0.07034147827739483</v>
+        <v>0.2180060921446495</v>
       </c>
       <c r="E68">
-        <v>-0.1766839661221724</v>
+        <v>-0.02372159010701595</v>
       </c>
       <c r="F68">
-        <v>-0.07604171174517156</v>
+        <v>0.05837429209680695</v>
       </c>
       <c r="G68">
-        <v>0.03680667098142217</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.01925665280356346</v>
+      </c>
+      <c r="H68">
+        <v>0.03695791306002211</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07376238577574734</v>
+        <v>0.05927293207792309</v>
       </c>
       <c r="C69">
-        <v>-0.02725792753216785</v>
+        <v>0.02894611518687314</v>
       </c>
       <c r="D69">
-        <v>0.02180816041670016</v>
+        <v>-0.03712147467479581</v>
       </c>
       <c r="E69">
-        <v>0.01581243079727717</v>
+        <v>-0.004122177606397409</v>
       </c>
       <c r="F69">
-        <v>-0.008840257302976566</v>
+        <v>-0.03027394685643297</v>
       </c>
       <c r="G69">
-        <v>-0.08060259683913099</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.01129782377553542</v>
+      </c>
+      <c r="H69">
+        <v>0.002029879886322607</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.07562474970904987</v>
+        <v>0.1478652312775236</v>
       </c>
       <c r="C71">
-        <v>0.02267227835414841</v>
+        <v>0.02758163624714513</v>
       </c>
       <c r="D71">
-        <v>0.05930980649546811</v>
+        <v>0.1996196710467212</v>
       </c>
       <c r="E71">
-        <v>-0.2121061523708903</v>
+        <v>-0.02516206523452361</v>
       </c>
       <c r="F71">
-        <v>-0.07673867295034864</v>
+        <v>0.0699047935542676</v>
       </c>
       <c r="G71">
-        <v>-0.000781392991826974</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01547589664856054</v>
+      </c>
+      <c r="H71">
+        <v>0.02276330020867022</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1103734809309524</v>
+        <v>0.08594896071534087</v>
       </c>
       <c r="C72">
-        <v>-0.04262817239689293</v>
+        <v>0.04120702406142256</v>
       </c>
       <c r="D72">
-        <v>0.07468876384480662</v>
+        <v>-0.07894003335089736</v>
       </c>
       <c r="E72">
-        <v>0.03642904036483895</v>
+        <v>-0.007135116469439037</v>
       </c>
       <c r="F72">
-        <v>-0.113610168444889</v>
+        <v>-0.07896015015109072</v>
       </c>
       <c r="G72">
-        <v>0.1131992465120142</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.05323301975990647</v>
+      </c>
+      <c r="H72">
+        <v>-0.1822580063667247</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2478352540130632</v>
+        <v>0.2397794140632331</v>
       </c>
       <c r="C73">
-        <v>-0.07798696646359839</v>
+        <v>0.04964918007951811</v>
       </c>
       <c r="D73">
-        <v>-0.0002447357473603078</v>
+        <v>-0.0615933702780754</v>
       </c>
       <c r="E73">
-        <v>-0.0746836596122346</v>
+        <v>-0.07804029774834029</v>
       </c>
       <c r="F73">
-        <v>-0.2929867298942967</v>
+        <v>-0.02570766057548429</v>
       </c>
       <c r="G73">
-        <v>0.4905069002322663</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.06215285888612129</v>
+      </c>
+      <c r="H73">
+        <v>-0.5165967359111281</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1368682199208553</v>
+        <v>0.1169957264003984</v>
       </c>
       <c r="C74">
-        <v>-0.0268921055759675</v>
+        <v>0.05256249050006134</v>
       </c>
       <c r="D74">
-        <v>0.04064991426627637</v>
+        <v>-0.09583979216472749</v>
       </c>
       <c r="E74">
-        <v>0.0228485174436571</v>
+        <v>-0.003875670869252291</v>
       </c>
       <c r="F74">
-        <v>0.07824647426666989</v>
+        <v>-0.06759079411797236</v>
       </c>
       <c r="G74">
-        <v>0.02495989967228712</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.05681477045239955</v>
+      </c>
+      <c r="H74">
+        <v>0.02914042565013482</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.226774371673134</v>
+        <v>0.229116860647026</v>
       </c>
       <c r="C75">
-        <v>-0.08668136345488529</v>
+        <v>0.1040783607664779</v>
       </c>
       <c r="D75">
-        <v>0.1258279073065569</v>
+        <v>-0.1555418639279531</v>
       </c>
       <c r="E75">
-        <v>0.07189033575860523</v>
+        <v>-0.02213179623014193</v>
       </c>
       <c r="F75">
-        <v>0.1461332293388412</v>
+        <v>-0.1560333150408053</v>
       </c>
       <c r="G75">
-        <v>-0.02674381163248905</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.1195171430114376</v>
+      </c>
+      <c r="H75">
+        <v>0.1152637545191864</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2743399747664402</v>
+        <v>0.2013387365118398</v>
       </c>
       <c r="C76">
-        <v>-0.04248351822037757</v>
+        <v>0.09682413953132653</v>
       </c>
       <c r="D76">
-        <v>0.1617492396392867</v>
+        <v>-0.1478998039176606</v>
       </c>
       <c r="E76">
-        <v>0.04867097904245023</v>
+        <v>0.02189239442620157</v>
       </c>
       <c r="F76">
-        <v>0.1789473282890909</v>
+        <v>-0.1560829457523722</v>
       </c>
       <c r="G76">
-        <v>-0.02451787898136448</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.1201514777906846</v>
+      </c>
+      <c r="H76">
+        <v>0.131807153083397</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1432844379856774</v>
+        <v>0.07112514773303889</v>
       </c>
       <c r="C77">
-        <v>-0.02530547828009103</v>
+        <v>0.009706133910829707</v>
       </c>
       <c r="D77">
-        <v>-0.06485931182082923</v>
+        <v>-0.07314393418710829</v>
       </c>
       <c r="E77">
-        <v>0.09809881606952987</v>
+        <v>-0.01421716695685377</v>
       </c>
       <c r="F77">
-        <v>-0.1737981470272918</v>
+        <v>0.03032224855218893</v>
       </c>
       <c r="G77">
-        <v>-0.1980992429763877</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.09558188721105491</v>
+      </c>
+      <c r="H77">
+        <v>0.01858833140594788</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.06202354220763062</v>
+        <v>0.03795469378656351</v>
       </c>
       <c r="C78">
-        <v>-0.02754720723728945</v>
+        <v>0.01041084627241879</v>
       </c>
       <c r="D78">
-        <v>-0.001700984907767213</v>
+        <v>-0.06355059623497798</v>
       </c>
       <c r="E78">
-        <v>0.09860462368422333</v>
+        <v>-0.002209917220526502</v>
       </c>
       <c r="F78">
-        <v>-0.05058279576667295</v>
+        <v>-0.02532296864394783</v>
       </c>
       <c r="G78">
-        <v>-0.05294095587980788</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.04663104108653714</v>
+      </c>
+      <c r="H78">
+        <v>-0.05846731308017003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1643750898383278</v>
+        <v>0.1565359398955502</v>
       </c>
       <c r="C80">
-        <v>0.9365492282657345</v>
+        <v>0.04820437726300827</v>
       </c>
       <c r="D80">
-        <v>0.148326982338893</v>
+        <v>-0.03389065163356914</v>
       </c>
       <c r="E80">
-        <v>0.2266645832741971</v>
+        <v>0.960294361807395</v>
       </c>
       <c r="F80">
-        <v>-0.03322477876863281</v>
+        <v>0.1536609248035828</v>
       </c>
       <c r="G80">
-        <v>0.05703804193098581</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.09151971080696102</v>
+      </c>
+      <c r="H80">
+        <v>-0.01990688667440612</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1691207514698065</v>
+        <v>0.1495447195203587</v>
       </c>
       <c r="C81">
-        <v>-0.04521819233982168</v>
+        <v>0.06708700090895658</v>
       </c>
       <c r="D81">
-        <v>0.1092217918049212</v>
+        <v>-0.09512197253385624</v>
       </c>
       <c r="E81">
-        <v>0.04413671847430932</v>
+        <v>0.004173190810353594</v>
       </c>
       <c r="F81">
-        <v>0.1445940702007905</v>
+        <v>-0.09707592510139613</v>
       </c>
       <c r="G81">
-        <v>0.01394311714908459</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.07701978662538714</v>
+      </c>
+      <c r="H81">
+        <v>0.08605364397854569</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.05030403325341372</v>
+        <v>0.03334176427860645</v>
       </c>
       <c r="C83">
-        <v>-0.0329096556489404</v>
+        <v>0.005925865000459427</v>
       </c>
       <c r="D83">
-        <v>-0.03002323725674327</v>
+        <v>-0.02265466948630904</v>
       </c>
       <c r="E83">
-        <v>0.02869573501030579</v>
+        <v>-0.01479950611483354</v>
       </c>
       <c r="F83">
-        <v>-0.05603478720755836</v>
+        <v>-0.002259967299571011</v>
       </c>
       <c r="G83">
-        <v>-0.05906408540736845</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.04330711479054246</v>
+      </c>
+      <c r="H83">
+        <v>-0.03840570521343106</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.24946631129495</v>
+        <v>0.2153139965719348</v>
       </c>
       <c r="C85">
-        <v>-0.05978798547668969</v>
+        <v>0.08655005653757139</v>
       </c>
       <c r="D85">
-        <v>0.1293896072123847</v>
+        <v>-0.156518430662976</v>
       </c>
       <c r="E85">
-        <v>0.05726984929696485</v>
+        <v>-0.01194800100119566</v>
       </c>
       <c r="F85">
-        <v>0.1469531149805998</v>
+        <v>-0.1412660436479118</v>
       </c>
       <c r="G85">
-        <v>-0.06165706224030715</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1318208722129864</v>
+      </c>
+      <c r="H85">
+        <v>0.09285126864436971</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.002831664717536115</v>
+        <v>0.02005849483688175</v>
       </c>
       <c r="C86">
-        <v>0.005574749284461283</v>
+        <v>-0.0003365300188657452</v>
       </c>
       <c r="D86">
-        <v>-0.01824633552257569</v>
+        <v>-0.008430550076289961</v>
       </c>
       <c r="E86">
-        <v>0.04787741879162991</v>
+        <v>-0.011922711813606</v>
       </c>
       <c r="F86">
-        <v>-0.06681025723166985</v>
+        <v>0.01483079875930818</v>
       </c>
       <c r="G86">
-        <v>-0.03474780307604799</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.0684941254485061</v>
+      </c>
+      <c r="H86">
+        <v>-0.06792740440017069</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03635504930474644</v>
+        <v>0.02929174061246372</v>
       </c>
       <c r="C87">
-        <v>-0.008188281907071446</v>
+        <v>0.003047483248293213</v>
       </c>
       <c r="D87">
-        <v>-0.004446788337661347</v>
+        <v>-0.03270206166017051</v>
       </c>
       <c r="E87">
-        <v>0.02534337596386416</v>
+        <v>-0.003273375440768695</v>
       </c>
       <c r="F87">
-        <v>-0.09973308699361555</v>
+        <v>-0.006906530694954584</v>
       </c>
       <c r="G87">
-        <v>-0.02405383665211258</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.07719714797452198</v>
+      </c>
+      <c r="H87">
+        <v>-0.06764037823099779</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.01187879090800884</v>
+        <v>0.03847806512248023</v>
       </c>
       <c r="C88">
-        <v>0.008005511492954908</v>
+        <v>-0.01023300559702103</v>
       </c>
       <c r="D88">
-        <v>0.01911581249871144</v>
+        <v>-0.0006234880804429843</v>
       </c>
       <c r="E88">
-        <v>-0.001693061057519671</v>
+        <v>0.009111114273401385</v>
       </c>
       <c r="F88">
-        <v>-0.01157321074977344</v>
+        <v>-0.01001193444786022</v>
       </c>
       <c r="G88">
-        <v>-0.06480097692883437</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.004340840746889699</v>
+      </c>
+      <c r="H88">
+        <v>-0.009507624624227811</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08965507958460267</v>
+        <v>0.2392654252003043</v>
       </c>
       <c r="C89">
-        <v>0.01814274344290335</v>
+        <v>0.04084033729220903</v>
       </c>
       <c r="D89">
-        <v>0.07230652446474012</v>
+        <v>0.348939940179281</v>
       </c>
       <c r="E89">
-        <v>-0.2880300117938722</v>
+        <v>-0.05572113096631243</v>
       </c>
       <c r="F89">
-        <v>-0.1446824191905499</v>
+        <v>0.07453172965041706</v>
       </c>
       <c r="G89">
-        <v>-0.07797143496192097</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.02839983968063834</v>
+      </c>
+      <c r="H89">
+        <v>0.01716973053089491</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07939729753867841</v>
+        <v>0.1963481875924581</v>
       </c>
       <c r="C90">
-        <v>0.07045804614798806</v>
+        <v>0.03447585848856709</v>
       </c>
       <c r="D90">
-        <v>0.08801398660331511</v>
+        <v>0.304954727283141</v>
       </c>
       <c r="E90">
-        <v>-0.315841749060848</v>
+        <v>-0.034244324822866</v>
       </c>
       <c r="F90">
-        <v>-0.1054207700541925</v>
+        <v>0.08974881021248107</v>
       </c>
       <c r="G90">
-        <v>-0.04710491242412847</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.02989551886052391</v>
+      </c>
+      <c r="H90">
+        <v>0.06415897876527435</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2974448328230341</v>
+        <v>0.2342981020975909</v>
       </c>
       <c r="C91">
-        <v>-0.07345421308316787</v>
+        <v>0.1048545735133104</v>
       </c>
       <c r="D91">
-        <v>0.1248460735792967</v>
+        <v>-0.1495414281381368</v>
       </c>
       <c r="E91">
-        <v>0.03099512139568361</v>
+        <v>-0.01261456799005024</v>
       </c>
       <c r="F91">
-        <v>0.241644855769457</v>
+        <v>-0.1482271482689053</v>
       </c>
       <c r="G91">
-        <v>0.01780931165858953</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.1450579537912431</v>
+      </c>
+      <c r="H91">
+        <v>0.1675529756103394</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1580779752168245</v>
+        <v>0.2395186505755796</v>
       </c>
       <c r="C92">
-        <v>0.06448307928620228</v>
+        <v>0.09571474392055146</v>
       </c>
       <c r="D92">
-        <v>0.1578948254506656</v>
+        <v>0.235268006328778</v>
       </c>
       <c r="E92">
-        <v>-0.4535563061562275</v>
+        <v>-0.01801498380991102</v>
       </c>
       <c r="F92">
-        <v>0.04269804804453916</v>
+        <v>0.04631182537230508</v>
       </c>
       <c r="G92">
-        <v>-0.4272511439983663</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.003972531752265839</v>
+      </c>
+      <c r="H92">
+        <v>0.1580519546035656</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.08618992831527643</v>
+        <v>0.2203099605172662</v>
       </c>
       <c r="C93">
-        <v>0.07423399224784748</v>
+        <v>0.04667718419971731</v>
       </c>
       <c r="D93">
-        <v>0.09709072188459685</v>
+        <v>0.3272358158701405</v>
       </c>
       <c r="E93">
-        <v>-0.4261668098416106</v>
+        <v>-0.0501706040505483</v>
       </c>
       <c r="F93">
-        <v>-0.07740966981579382</v>
+        <v>0.1080711388118656</v>
       </c>
       <c r="G93">
-        <v>0.01310108532437303</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.04061361205740135</v>
+      </c>
+      <c r="H93">
+        <v>0.01453660649111416</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2921482732771739</v>
+        <v>0.2588961580964185</v>
       </c>
       <c r="C94">
-        <v>-0.1137000388239202</v>
+        <v>0.09592516777028781</v>
       </c>
       <c r="D94">
-        <v>0.2068587516615814</v>
+        <v>-0.1362896606320176</v>
       </c>
       <c r="E94">
-        <v>0.05541482420207128</v>
+        <v>-0.03109751374999533</v>
       </c>
       <c r="F94">
-        <v>0.2446672302884292</v>
+        <v>-0.1921482392001812</v>
       </c>
       <c r="G94">
-        <v>0.0655133887087775</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.139976830430332</v>
+      </c>
+      <c r="H94">
+        <v>0.1775416096050899</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07786806270453141</v>
+        <v>0.05387827227510103</v>
       </c>
       <c r="C95">
-        <v>-0.06554040335926296</v>
+        <v>0.02900281307134793</v>
       </c>
       <c r="D95">
-        <v>-0.03874981668082865</v>
+        <v>-0.09075181483468901</v>
       </c>
       <c r="E95">
-        <v>0.1061648409564723</v>
+        <v>-0.07751506403285267</v>
       </c>
       <c r="F95">
-        <v>0.01651808028598666</v>
+        <v>-0.002325572550813009</v>
       </c>
       <c r="G95">
-        <v>-0.1882061796739546</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.03287816713898321</v>
+      </c>
+      <c r="H95">
+        <v>-0.03154352062447197</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1833283472031563</v>
+        <v>0.1826508582265408</v>
       </c>
       <c r="C98">
-        <v>-0.03372349489151007</v>
+        <v>0.07043636328172924</v>
       </c>
       <c r="D98">
-        <v>-0.009363364963742954</v>
+        <v>-0.03586126300820448</v>
       </c>
       <c r="E98">
-        <v>-0.07265209217323401</v>
+        <v>-0.05221816441856938</v>
       </c>
       <c r="F98">
-        <v>-0.159343441461327</v>
+        <v>0.002459385293901</v>
       </c>
       <c r="G98">
-        <v>0.3520737162822135</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.07645859764334495</v>
+      </c>
+      <c r="H98">
+        <v>-0.3833695440170234</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.006042263462272151</v>
+        <v>0.01460389898488822</v>
       </c>
       <c r="C101">
-        <v>-0.009766116553954313</v>
+        <v>-0.0007438160224076375</v>
       </c>
       <c r="D101">
-        <v>0.004113162829192012</v>
+        <v>-0.009553530051941277</v>
       </c>
       <c r="E101">
-        <v>0.1109745409184604</v>
+        <v>0.003261839518612789</v>
       </c>
       <c r="F101">
-        <v>-0.1375067908419632</v>
+        <v>-0.0158272235687988</v>
       </c>
       <c r="G101">
-        <v>-0.1429849035088621</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1086981703199187</v>
+      </c>
+      <c r="H101">
+        <v>0.03347038540428854</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.09891686610681613</v>
+        <v>0.103736650127943</v>
       </c>
       <c r="C102">
-        <v>-0.02286948517790262</v>
+        <v>0.03425356204367853</v>
       </c>
       <c r="D102">
-        <v>0.04114843964350118</v>
+        <v>-0.07582831925832494</v>
       </c>
       <c r="E102">
-        <v>0.05740476582869553</v>
+        <v>0.0009915290776861363</v>
       </c>
       <c r="F102">
-        <v>0.1206327040520002</v>
+        <v>-0.06964736186806043</v>
       </c>
       <c r="G102">
-        <v>-0.05467389991267195</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.07325669543419032</v>
+      </c>
+      <c r="H102">
+        <v>0.07621008065333747</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.02687273983964548</v>
+        <v>0.01989365180725674</v>
       </c>
       <c r="C103">
-        <v>-0.009589258675595933</v>
+        <v>0.007675471474302583</v>
       </c>
       <c r="D103">
-        <v>0.01246198255242748</v>
+        <v>-0.01680369438347836</v>
       </c>
       <c r="E103">
-        <v>0.01732920383183904</v>
+        <v>0.007251410399078371</v>
       </c>
       <c r="F103">
-        <v>0.006633578186875646</v>
+        <v>-0.01619761415291068</v>
       </c>
       <c r="G103">
-        <v>-0.03971462399531295</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-8.886785690807912e-06</v>
+      </c>
+      <c r="H103">
+        <v>0.00852916585348513</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.2764130126096075</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.944055720415158</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.001982348411876464</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.02657095399699971</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.146858124585836</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>-0.009866784405253605</v>
+      </c>
+      <c r="H104">
+        <v>0.03727397181104984</v>
       </c>
     </row>
   </sheetData>
